--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>60eff7f1-41b5-421a-a2b6-54713c617a0f.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-02-19 05:34:41</t>
   </si>
   <si>
+    <t>60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:37:11</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:37:52</t>
+  </si>
+  <si>
     <t>4bf8b770-2b73-4751-916b-c027898d1fc7.0a1f898601dd64773b4f06cc7e4f24ab6a3205bc.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-02-19 05:34:58</t>
+  </si>
+  <si>
+    <t>60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:37:20</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:38:12</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4bf8b770-2b73-4751-916b-c027898d1fc7.md" r:id="rId2"/>
     <hyperlink ref="A3" display="02aa88c5-084f-46ec-8b00-72444b69046a.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="02aa88c5-084f-46ec-8b00-72444b69046a.2f685689f571bd4c4d2e1f833c51de11d88378a4.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="02aa88c5-084f-46ec-8b00-72444b69046a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="02aa88c5-084f-46ec-8b00-72444b69046a.2f685689f571bd4c4d2e1f833c51de11d88378a4.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="02aa88c5-084f-46ec-8b00-72444b69046a.2f685689f571bd4c4d2e1f833c51de11d88378a4.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="02aa88c5-084f-46ec-8b00-72444b69046a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="02aa88c5-084f-46ec-8b00-72444b69046a.2f685689f571bd4c4d2e1f833c51de11d88378a4.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 05:37:11</t>
-  </si>
-  <si>
-    <t>2016-02-19 05:37:52</t>
+    <t>2016-02-19 05:38:51</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:39:34</t>
   </si>
   <si>
     <t>4bf8b770-2b73-4751-916b-c027898d1fc7.0a1f898601dd64773b4f06cc7e4f24ab6a3205bc.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>60eff7f1-41b5-421a-a2b6-54713c617a0f.1479dbe8b70207e844a6c4f3209c6d2e5d9e8c9d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 05:37:20</t>
-  </si>
-  <si>
-    <t>2016-02-19 05:38:12</t>
+    <t>2016-02-19 05:39:01</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:39:50</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>3aaff79e-7311-419c-9ef3-0ea864b799da.db4c6cffa82d6430ba90646cbcf924abcdd63c90.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-02-19 05:46:43</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:47:25</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>9eb1fb6a-3318-4339-a92b-8f71d363a4eb.be3be81da801bc3ff874f4e44f79467f38bb3f5e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-02-19 05:44:46</t>
   </si>
   <si>
     <t>2016-02-19 05:45:27</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>9eb1fb6a-3318-4339-a92b-8f71d363a4eb.be3be81da801bc3ff874f4e44f79467f38bb3f5e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>3aaff79e-7311-419c-9ef3-0ea864b799da.db4c6cffa82d6430ba90646cbcf924abcdd63c90.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-02-19 05:46:53</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:47:42</t>
+  </si>
+  <si>
+    <t>9eb1fb6a-3318-4339-a92b-8f71d363a4eb.be3be81da801bc3ff874f4e44f79467f38bb3f5e.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-02-19 05:44:57</t>
   </si>
   <si>
     <t>2016-02-19 05:45:43</t>
-  </si>
-  <si>
-    <t>9eb1fb6a-3318-4339-a92b-8f71d363a4eb.be3be81da801bc3ff874f4e44f79467f38bb3f5e.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>3aaff79e-7311-419c-9ef3-0ea864b799da.db4c6cffa82d6430ba90646cbcf924abcdd63c90.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 05:46:43</t>
-  </si>
-  <si>
-    <t>2016-02-19 05:47:25</t>
+    <t>2016-02-19 05:48:23</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:49:08</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>3aaff79e-7311-419c-9ef3-0ea864b799da.db4c6cffa82d6430ba90646cbcf924abcdd63c90.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 05:46:53</t>
-  </si>
-  <si>
-    <t>2016-02-19 05:47:42</t>
+    <t>2016-02-19 05:48:33</t>
+  </si>
+  <si>
+    <t>2016-02-19 05:49:30</t>
   </si>
   <si>
     <t>9eb1fb6a-3318-4339-a92b-8f71d363a4eb.be3be81da801bc3ff874f4e44f79467f38bb3f5e.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 06:12:57</t>
-  </si>
-  <si>
-    <t>2016-02-19 06:13:49</t>
+    <t>2016-02-19 06:14:50</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:15:31</t>
   </si>
   <si>
     <t>b904de6b-ebf2-40b5-af79-41c432be28fc.ab4f6f9de9ee80a75dacf23dfb7d82b36f6ed3a5.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 06:13:12</t>
-  </si>
-  <si>
-    <t>2016-02-19 06:14:06</t>
+    <t>2016-02-19 06:15:03</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:15:49</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 06:14:50</t>
-  </si>
-  <si>
-    <t>2016-02-19 06:15:31</t>
+    <t>2016-02-19 06:16:34</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:17:17</t>
   </si>
   <si>
     <t>b904de6b-ebf2-40b5-af79-41c432be28fc.ab4f6f9de9ee80a75dacf23dfb7d82b36f6ed3a5.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 06:15:03</t>
-  </si>
-  <si>
-    <t>2016-02-19 06:15:49</t>
+    <t>2016-02-19 06:16:46</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:17:34</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.md</t>
   </si>
   <si>
+    <t>cdd92b4f-7b60-45f9-ab35-432da2485ebf.md</t>
+  </si>
+  <si>
+    <t>f03929aa-c985-4475-9fbf-ef48331df463.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -88,6 +94,18 @@
     <t>2016-02-19 06:17:17</t>
   </si>
   <si>
+    <t>cdd92b4f-7b60-45f9-ab35-432da2485ebf.a740afdaf3f394baded5dd483d419713ffb936c3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:18:19</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:19:03</t>
+  </si>
+  <si>
+    <t>f03929aa-c985-4475-9fbf-ef48331df463.46481bd8486968436b12aeaa7ec703c679aea3b2.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>b904de6b-ebf2-40b5-af79-41c432be28fc.ab4f6f9de9ee80a75dacf23dfb7d82b36f6ed3a5.de-de.xlf</t>
   </si>
   <si>
@@ -104,6 +122,18 @@
   </si>
   <si>
     <t>2016-02-19 06:17:34</t>
+  </si>
+  <si>
+    <t>cdd92b4f-7b60-45f9-ab35-432da2485ebf.a740afdaf3f394baded5dd483d419713ffb936c3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:18:29</t>
+  </si>
+  <si>
+    <t>2016-02-19 06:19:21</t>
+  </si>
+  <si>
+    <t>f03929aa-c985-4475-9fbf-ef48331df463.46481bd8486968436b12aeaa7ec703c679aea3b2.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -208,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -274,12 +304,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="b904de6b-ebf2-40b5-af79-41c432be28fc.md" r:id="rId2"/>
     <hyperlink ref="A3" display="ffffcc319691-c257-4cc0-b581-7c4e045a9654.md" r:id="rId3"/>
     <hyperlink ref="A4" display="ffffffbc26e026-4eb3-4950-9502-da52d91efebb.md" r:id="rId4"/>
     <hyperlink ref="A5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="f03929aa-c985-4475-9fbf-ef48331df463.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -290,7 +344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,31 +363,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -344,22 +398,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -370,22 +424,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -396,22 +450,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -422,22 +476,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -458,6 +564,14 @@
     <hyperlink ref="C5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.md" r:id="rId16"/>
     <hyperlink ref="F5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.a740afdaf3f394baded5dd483d419713ffb936c3.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.a740afdaf3f394baded5dd483d419713ffb936c3.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="f03929aa-c985-4475-9fbf-ef48331df463.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="f03929aa-c985-4475-9fbf-ef48331df463.46481bd8486968436b12aeaa7ec703c679aea3b2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="f03929aa-c985-4475-9fbf-ef48331df463.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="f03929aa-c985-4475-9fbf-ef48331df463.46481bd8486968436b12aeaa7ec703c679aea3b2.zh-cn.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +601,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +636,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +662,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -574,22 +688,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -600,22 +714,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -636,6 +802,14 @@
     <hyperlink ref="C5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.md" r:id="rId16"/>
     <hyperlink ref="F5" display="18f6e5b1-ca35-4fcb-82fe-daa8c09170b3.ff4c63a655b88964ac3dd170528d3646da0eeff1.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.a740afdaf3f394baded5dd483d419713ffb936c3.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="cdd92b4f-7b60-45f9-ab35-432da2485ebf.a740afdaf3f394baded5dd483d419713ffb936c3.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="f03929aa-c985-4475-9fbf-ef48331df463.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="f03929aa-c985-4475-9fbf-ef48331df463.46481bd8486968436b12aeaa7ec703c679aea3b2.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="f03929aa-c985-4475-9fbf-ef48331df463.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="f03929aa-c985-4475-9fbf-ef48331df463.46481bd8486968436b12aeaa7ec703c679aea3b2.de-de.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>f2fa4ce0-bf40-4efe-91dc-85b8937f538d.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-02-22 09:08:33</t>
   </si>
   <si>
+    <t>f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:10:59</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:11:42</t>
+  </si>
+  <si>
     <t>6b9c4e48-5e70-4ce4-b575-0c6735b8d69d.ad2d6c27b8b92ce9ec19f54e6366cd875293c019.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-02-22 09:08:55</t>
+  </si>
+  <si>
+    <t>f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:11:13</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:12:05</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="6b9c4e48-5e70-4ce4-b575-0c6735b8d69d.md" r:id="rId2"/>
     <hyperlink ref="A3" display="dc838b50-9a82-40e3-9807-87182c61bf70.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="dc838b50-9a82-40e3-9807-87182c61bf70.4a28f7848caf9f59ae1d73cd1563a0bafd76d71b.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="dc838b50-9a82-40e3-9807-87182c61bf70.md" r:id="rId8"/>
     <hyperlink ref="F3" display="dc838b50-9a82-40e3-9807-87182c61bf70.4a28f7848caf9f59ae1d73cd1563a0bafd76d71b.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="dc838b50-9a82-40e3-9807-87182c61bf70.4a28f7848caf9f59ae1d73cd1563a0bafd76d71b.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="dc838b50-9a82-40e3-9807-87182c61bf70.md" r:id="rId8"/>
     <hyperlink ref="F3" display="dc838b50-9a82-40e3-9807-87182c61bf70.4a28f7848caf9f59ae1d73cd1563a0bafd76d71b.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 09:10:59</t>
-  </si>
-  <si>
-    <t>2016-02-22 09:11:42</t>
+    <t>2016-02-22 09:12:54</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:13:52</t>
   </si>
   <si>
     <t>6b9c4e48-5e70-4ce4-b575-0c6735b8d69d.ad2d6c27b8b92ce9ec19f54e6366cd875293c019.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>f2fa4ce0-bf40-4efe-91dc-85b8937f538d.55bf4393a37a88e53ecf3ac86c08ef0c4cfb56cf.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 09:11:13</t>
-  </si>
-  <si>
-    <t>2016-02-22 09:12:05</t>
+    <t>2016-02-22 09:13:09</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:14:15</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>9f4ad892-dc37-4aec-b18d-4595c510be76.1604df53df5c7b4bd28476df8b64ab4beae88868.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-02-22 09:22:37</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:23:23</t>
+  </si>
+  <si>
     <t>04450948-5d02-4217-974e-d0ffa3ee09ff.15a1edfc4b33e9a11595900e9d2ee44eec10b639.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>9f4ad892-dc37-4aec-b18d-4595c510be76.1604df53df5c7b4bd28476df8b64ab4beae88868.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:22:49</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:23:45</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>9f4ad892-dc37-4aec-b18d-4595c510be76.1604df53df5c7b4bd28476df8b64ab4beae88868.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 09:22:37</t>
-  </si>
-  <si>
-    <t>2016-02-22 09:23:23</t>
+    <t>2016-02-22 09:24:19</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:25:03</t>
   </si>
   <si>
     <t>04450948-5d02-4217-974e-d0ffa3ee09ff.15a1edfc4b33e9a11595900e9d2ee44eec10b639.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>9f4ad892-dc37-4aec-b18d-4595c510be76.1604df53df5c7b4bd28476df8b64ab4beae88868.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 09:22:49</t>
-  </si>
-  <si>
-    <t>2016-02-22 09:23:45</t>
+    <t>2016-02-22 09:24:31</t>
+  </si>
+  <si>
+    <t>2016-02-22 09:25:25</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>de5be08e-3052-43be-8498-2bad05873a66.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-02-22 13:36:03</t>
   </si>
   <si>
+    <t>de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:38:29</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:39:25</t>
+  </si>
+  <si>
     <t>20a999aa-61e8-4002-9b34-dc2f7ca76181.774ad5f256acb6ad5192e6bfa732bfd4e0ed4c60.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-02-22 13:36:24</t>
+  </si>
+  <si>
+    <t>de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:38:42</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:39:48</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="20a999aa-61e8-4002-9b34-dc2f7ca76181.md" r:id="rId2"/>
     <hyperlink ref="A3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="de5be08e-3052-43be-8498-2bad05873a66.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.db8f26401a02f16806c24fb75ce944382febf907.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.md" r:id="rId8"/>
     <hyperlink ref="F3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.db8f26401a02f16806c24fb75ce944382febf907.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="de5be08e-3052-43be-8498-2bad05873a66.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="de5be08e-3052-43be-8498-2bad05873a66.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.db8f26401a02f16806c24fb75ce944382febf907.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.md" r:id="rId8"/>
     <hyperlink ref="F3" display="b5654243-3d59-40f4-b5e6-44d2b9aab733.db8f26401a02f16806c24fb75ce944382febf907.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="de5be08e-3052-43be-8498-2bad05873a66.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="de5be08e-3052-43be-8498-2bad05873a66.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 13:38:29</t>
-  </si>
-  <si>
-    <t>2016-02-22 13:39:25</t>
+    <t>2016-02-22 13:40:39</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:43:03</t>
   </si>
   <si>
     <t>20a999aa-61e8-4002-9b34-dc2f7ca76181.774ad5f256acb6ad5192e6bfa732bfd4e0ed4c60.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>de5be08e-3052-43be-8498-2bad05873a66.98bc17ba9a29ec8e3e2a0c4a6cf298ad95781d86.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 13:38:42</t>
-  </si>
-  <si>
-    <t>2016-02-22 13:39:48</t>
+    <t>2016-02-22 13:40:56</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:43:33</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>6b07ccfe-699f-489d-aef5-2635bc7b185d.109802649b1de71b350e5e23191c5c80369e3a81.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-02-22 13:53:11</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:54:13</t>
+  </si>
+  <si>
     <t>638e1937-aa77-4fef-9ed1-d1a300111d9c.851c3dc2e4e04aeb363076b33803c3845bbf7aa9.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>6b07ccfe-699f-489d-aef5-2635bc7b185d.109802649b1de71b350e5e23191c5c80369e3a81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:53:26</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:54:38</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>6b07ccfe-699f-489d-aef5-2635bc7b185d.109802649b1de71b350e5e23191c5c80369e3a81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 13:53:11</t>
-  </si>
-  <si>
-    <t>2016-02-22 13:54:13</t>
+    <t>2016-02-22 13:55:24</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:56:26</t>
   </si>
   <si>
     <t>638e1937-aa77-4fef-9ed1-d1a300111d9c.851c3dc2e4e04aeb363076b33803c3845bbf7aa9.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>6b07ccfe-699f-489d-aef5-2635bc7b185d.109802649b1de71b350e5e23191c5c80369e3a81.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 13:53:26</t>
-  </si>
-  <si>
-    <t>2016-02-22 13:54:38</t>
+    <t>2016-02-22 13:55:38</t>
+  </si>
+  <si>
+    <t>2016-02-22 13:56:56</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:21:04</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:22:04</t>
+    <t>2016-02-22 14:23:19</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:24:03</t>
   </si>
   <si>
     <t>5f600e11-17c0-4fe6-a732-0bcc76017be7.29f84c4ddde347bb5f49e0f3f5c45cf0da01dc8d.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:21:19</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:22:27</t>
+    <t>2016-02-22 14:23:32</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:24:24</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:23:19</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:24:03</t>
+    <t>2016-02-22 14:25:01</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:25:48</t>
   </si>
   <si>
     <t>5f600e11-17c0-4fe6-a732-0bcc76017be7.29f84c4ddde347bb5f49e0f3f5c45cf0da01dc8d.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:23:32</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:24:24</t>
+    <t>2016-02-22 14:25:15</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:26:10</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>286ef328-2142-46c7-868a-0bb4ccc19ced.md</t>
   </si>
   <si>
+    <t>7e7cb24c-ab73-4d35-a468-622b63b2944a.md</t>
+  </si>
+  <si>
+    <t>8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -88,6 +94,18 @@
     <t>2016-02-22 14:25:48</t>
   </si>
   <si>
+    <t>7e7cb24c-ab73-4d35-a468-622b63b2944a.f7613261e428dcfef4bbe9dbb02b345635b9376f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:26:53</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:27:42</t>
+  </si>
+  <si>
+    <t>8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.732ffb521f061e81969d8b2ad98670b67bf28a2c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>5f600e11-17c0-4fe6-a732-0bcc76017be7.29f84c4ddde347bb5f49e0f3f5c45cf0da01dc8d.de-de.xlf</t>
   </si>
   <si>
@@ -104,6 +122,18 @@
   </si>
   <si>
     <t>2016-02-22 14:26:10</t>
+  </si>
+  <si>
+    <t>7e7cb24c-ab73-4d35-a468-622b63b2944a.f7613261e428dcfef4bbe9dbb02b345635b9376f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:27:06</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:28:04</t>
+  </si>
+  <si>
+    <t>8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.732ffb521f061e81969d8b2ad98670b67bf28a2c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -208,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -274,12 +304,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5f600e11-17c0-4fe6-a732-0bcc76017be7.md" r:id="rId2"/>
     <hyperlink ref="A3" display="ffff53bc8cee-6561-4a05-86a7-af85e01e7c1a.md" r:id="rId3"/>
     <hyperlink ref="A4" display="fffffff30b1dc4-c37d-4fce-8754-f2d6c8d02802.md" r:id="rId4"/>
     <hyperlink ref="A5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -290,7 +344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,31 +363,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -344,22 +398,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -370,22 +424,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -396,22 +450,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -422,22 +476,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -458,6 +564,14 @@
     <hyperlink ref="C5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.md" r:id="rId16"/>
     <hyperlink ref="F5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.f7613261e428dcfef4bbe9dbb02b345635b9376f.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.f7613261e428dcfef4bbe9dbb02b345635b9376f.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.732ffb521f061e81969d8b2ad98670b67bf28a2c.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.732ffb521f061e81969d8b2ad98670b67bf28a2c.zh-cn.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +601,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +636,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +662,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -574,22 +688,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -600,22 +714,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -636,6 +802,14 @@
     <hyperlink ref="C5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.md" r:id="rId16"/>
     <hyperlink ref="F5" display="286ef328-2142-46c7-868a-0bb4ccc19ced.a69255cdb82c01c4a402b447f39bb7e772b73ad4.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.f7613261e428dcfef4bbe9dbb02b345635b9376f.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="7e7cb24c-ab73-4d35-a468-622b63b2944a.f7613261e428dcfef4bbe9dbb02b345635b9376f.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.732ffb521f061e81969d8b2ad98670b67bf28a2c.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="8cb6f5fa-a68a-45c4-840d-98deb56f8b5d.732ffb521f061e81969d8b2ad98670b67bf28a2c.de-de.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>a8acdbae-212f-4577-a97a-bcb26a9fcc8c.478929fd139052d24ef2396700ddefbd3d32b6b4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:29:56</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:31:09</t>
+    <t>2016-02-22 14:32:35</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:33:25</t>
   </si>
   <si>
     <t>Include</t>
@@ -79,10 +79,10 @@
     <t>a8acdbae-212f-4577-a97a-bcb26a9fcc8c.478929fd139052d24ef2396700ddefbd3d32b6b4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:30:11</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:31:47</t>
+    <t>2016-02-22 14:32:48</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:33:48</t>
   </si>
   <si>
     <t>c2de2976-cfd8-49c4-966d-c086ca65102a.47c54cf4816b630d26e780babd0a85c8321691a0.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>7798b606-ce84-4536-9a21-b0a659753e36.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-02-23 07:19:05</t>
   </si>
   <si>
+    <t>7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:21:48</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:22:35</t>
+  </si>
+  <si>
     <t>e2e754e4-6e62-448f-bc16-dc76fd0ec9ab.bf99ea80473d8890caf9fe5614236c67cdbf8dfa.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-02-23 07:19:28</t>
+  </si>
+  <si>
+    <t>7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:22:02</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:22:58</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="e2e754e4-6e62-448f-bc16-dc76fd0ec9ab.md" r:id="rId2"/>
     <hyperlink ref="A3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="7798b606-ce84-4536-9a21-b0a659753e36.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.859e46a7b7f4c206c5ff73c57b3c8ccc50e17cc0.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.md" r:id="rId8"/>
     <hyperlink ref="F3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.859e46a7b7f4c206c5ff73c57b3c8ccc50e17cc0.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="7798b606-ce84-4536-9a21-b0a659753e36.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="7798b606-ce84-4536-9a21-b0a659753e36.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.859e46a7b7f4c206c5ff73c57b3c8ccc50e17cc0.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.md" r:id="rId8"/>
     <hyperlink ref="F3" display="7cd3368b-1f8b-4c09-bdac-49d9706a741f.859e46a7b7f4c206c5ff73c57b3c8ccc50e17cc0.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="7798b606-ce84-4536-9a21-b0a659753e36.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="7798b606-ce84-4536-9a21-b0a659753e36.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 07:21:48</t>
-  </si>
-  <si>
-    <t>2016-02-23 07:22:35</t>
+    <t>2016-02-23 07:23:53</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:24:42</t>
   </si>
   <si>
     <t>e2e754e4-6e62-448f-bc16-dc76fd0ec9ab.bf99ea80473d8890caf9fe5614236c67cdbf8dfa.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>7798b606-ce84-4536-9a21-b0a659753e36.bc0e8e42a526c2c3160aa59736514cba69fbac99.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 07:22:02</t>
-  </si>
-  <si>
-    <t>2016-02-23 07:22:58</t>
+    <t>2016-02-23 07:24:06</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:25:05</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>74e35efe-bdf8-41cc-834f-ccd3ef52d5bb.4078d198f5ae5fdb83e5cfb86e949eca2b7ba1e8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-02-23 07:37:12</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:38:18</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e8df8750-c38d-45f3-a463-38017a29c508.b83aa19af3322749ea6dd77c0fa62e0b3466b0e4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-02-23 07:34:42</t>
   </si>
   <si>
     <t>2016-02-23 07:35:50</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e8df8750-c38d-45f3-a463-38017a29c508.b83aa19af3322749ea6dd77c0fa62e0b3466b0e4.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>74e35efe-bdf8-41cc-834f-ccd3ef52d5bb.4078d198f5ae5fdb83e5cfb86e949eca2b7ba1e8.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-02-23 07:37:27</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:38:42</t>
+  </si>
+  <si>
+    <t>e8df8750-c38d-45f3-a463-38017a29c508.b83aa19af3322749ea6dd77c0fa62e0b3466b0e4.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-02-23 07:34:57</t>
   </si>
   <si>
     <t>2016-02-23 07:36:13</t>
-  </si>
-  <si>
-    <t>e8df8750-c38d-45f3-a463-38017a29c508.b83aa19af3322749ea6dd77c0fa62e0b3466b0e4.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>74e35efe-bdf8-41cc-834f-ccd3ef52d5bb.4078d198f5ae5fdb83e5cfb86e949eca2b7ba1e8.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 07:37:12</t>
-  </si>
-  <si>
-    <t>2016-02-23 07:38:18</t>
+    <t>2016-02-23 07:39:29</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:40:18</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>74e35efe-bdf8-41cc-834f-ccd3ef52d5bb.4078d198f5ae5fdb83e5cfb86e949eca2b7ba1e8.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 07:37:27</t>
-  </si>
-  <si>
-    <t>2016-02-23 07:38:42</t>
+    <t>2016-02-23 07:39:43</t>
+  </si>
+  <si>
+    <t>2016-02-23 07:40:44</t>
   </si>
   <si>
     <t>e8df8750-c38d-45f3-a463-38017a29c508.b83aa19af3322749ea6dd77c0fa62e0b3466b0e4.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>6afa548a-6a5f-4775-b2ab-9ec8106b51ab.ea15ff70dcf6c2548779b068e0543e78b4e61bfc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 08:14:50</t>
-  </si>
-  <si>
-    <t>2016-02-23 08:16:00</t>
+    <t>2016-02-23 08:17:24</t>
+  </si>
+  <si>
+    <t>2016-02-23 08:18:29</t>
   </si>
   <si>
     <t>Include</t>
@@ -79,10 +79,10 @@
     <t>6afa548a-6a5f-4775-b2ab-9ec8106b51ab.ea15ff70dcf6c2548779b068e0543e78b4e61bfc.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 08:15:06</t>
-  </si>
-  <si>
-    <t>2016-02-23 08:16:27</t>
+    <t>2016-02-23 08:17:40</t>
+  </si>
+  <si>
+    <t>2016-02-23 08:18:56</t>
   </si>
   <si>
     <t>b30a2485-648f-495c-928b-a6f7cff6434b.780fa0f014ca4f8a334bf35157504a83a44af9b9.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -61,10 +61,10 @@
     <t>36928ae0-369b-4a5b-8787-e9cf17bd1d63.5c47261a04d11dae81fd1a47bf254b7446b9c07f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-24 07:02:41</t>
-  </si>
-  <si>
-    <t>2016-02-24 07:03:50</t>
+    <t>2016-02-24 07:05:12</t>
+  </si>
+  <si>
+    <t>2016-02-24 07:06:19</t>
   </si>
   <si>
     <t>Include</t>
@@ -73,10 +73,10 @@
     <t>36928ae0-369b-4a5b-8787-e9cf17bd1d63.5c47261a04d11dae81fd1a47bf254b7446b9c07f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-24 07:02:58</t>
-  </si>
-  <si>
-    <t>2016-02-24 07:04:21</t>
+    <t>2016-02-24 07:05:33</t>
+  </si>
+  <si>
+    <t>2016-02-24 07:06:48</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>67741593-67a5-440a-95f7-1285f266c3b8.800dc078353e2829d40d817f958a4bd09af759e9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 09:04:53</t>
-  </si>
-  <si>
-    <t>2016-02-25 09:05:41</t>
+    <t>2016-02-25 09:06:38</t>
+  </si>
+  <si>
+    <t>2016-02-25 09:07:22</t>
   </si>
   <si>
     <t>e34e6062-8862-4603-a8d2-7ae0ecfd06a9.1fa76c7368c1c38859582e4229145f8866545ced.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>67741593-67a5-440a-95f7-1285f266c3b8.800dc078353e2829d40d817f958a4bd09af759e9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 09:05:06</t>
-  </si>
-  <si>
-    <t>2016-02-25 09:06:00</t>
+    <t>2016-02-25 09:06:48</t>
+  </si>
+  <si>
+    <t>2016-02-25 09:07:45</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>67741593-67a5-440a-95f7-1285f266c3b8.800dc078353e2829d40d817f958a4bd09af759e9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 09:06:38</t>
-  </si>
-  <si>
-    <t>2016-02-25 09:07:22</t>
+    <t>2016-02-25 09:08:27</t>
+  </si>
+  <si>
+    <t>2016-02-25 09:09:10</t>
   </si>
   <si>
     <t>e34e6062-8862-4603-a8d2-7ae0ecfd06a9.1fa76c7368c1c38859582e4229145f8866545ced.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>67741593-67a5-440a-95f7-1285f266c3b8.800dc078353e2829d40d817f958a4bd09af759e9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 09:06:48</t>
-  </si>
-  <si>
-    <t>2016-02-25 09:07:45</t>
+    <t>2016-02-25 09:08:37</t>
+  </si>
+  <si>
+    <t>2016-02-25 09:09:27</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>2cf53653-fad0-4d68-9bb1-208c798ec3ad.md</t>
   </si>
   <si>
+    <t>f1426313-4c95-4d89-9ab0-d616ca86b43c.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -115,6 +118,15 @@
     <t>2016-02-26 04:58:24</t>
   </si>
   <si>
+    <t>f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-26 05:00:48</t>
+  </si>
+  <si>
+    <t>2016-02-26 05:01:31</t>
+  </si>
+  <si>
     <t>3f1c9f3e-43f7-49e1-b3c2-b71c60c0e93a.f1c949f73f69c640522426be7525a3a80e789148.de-de.xlf</t>
   </si>
   <si>
@@ -149,6 +161,15 @@
   </si>
   <si>
     <t>2016-02-26 04:58:41</t>
+  </si>
+  <si>
+    <t>f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-26 05:00:59</t>
+  </si>
+  <si>
+    <t>2016-02-26 05:01:48</t>
   </si>
 </sst>
 </file>
@@ -253,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -341,6 +362,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3f1c9f3e-43f7-49e1-b3c2-b71c60c0e93a.md" r:id="rId2"/>
@@ -349,6 +381,7 @@
     <hyperlink ref="A5" display="ffffff076ed774-3070-4a4c-8a1f-ac400d08bfac.md" r:id="rId5"/>
     <hyperlink ref="A6" display="67741593-67a5-440a-95f7-1285f266c3b8.md" r:id="rId6"/>
     <hyperlink ref="A7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -359,7 +392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -378,31 +411,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -413,22 +446,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +472,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -465,22 +498,22 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -491,22 +524,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -517,22 +550,22 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -543,22 +576,48 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -587,6 +646,10 @@
     <hyperlink ref="C7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.852dda83b75cf2422d84d676ac708a770c1be604.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="E7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.md" r:id="rId24"/>
     <hyperlink ref="F7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.852dda83b75cf2422d84d676ac708a770c1be604.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.md" r:id="rId26"/>
+    <hyperlink ref="C8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="E8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.md" r:id="rId28"/>
+    <hyperlink ref="F8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.zh-cn.xlf" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -597,7 +660,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,31 +679,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -651,22 +714,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -677,22 +740,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -703,22 +766,22 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -729,22 +792,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -755,22 +818,22 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -781,22 +844,48 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -825,6 +914,10 @@
     <hyperlink ref="C7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.852dda83b75cf2422d84d676ac708a770c1be604.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="E7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.md" r:id="rId24"/>
     <hyperlink ref="F7" display="2cf53653-fad0-4d68-9bb1-208c798ec3ad.852dda83b75cf2422d84d676ac708a770c1be604.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.md" r:id="rId26"/>
+    <hyperlink ref="C8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="E8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.md" r:id="rId28"/>
+    <hyperlink ref="F8" display="f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.de-de.xlf" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/terryjin/handback-status.xlsx
@@ -121,10 +121,10 @@
     <t>f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-26 05:00:48</t>
-  </si>
-  <si>
-    <t>2016-02-26 05:01:31</t>
+    <t>2016-02-26 05:02:29</t>
+  </si>
+  <si>
+    <t>2016-02-26 05:03:14</t>
   </si>
   <si>
     <t>3f1c9f3e-43f7-49e1-b3c2-b71c60c0e93a.f1c949f73f69c640522426be7525a3a80e789148.de-de.xlf</t>
@@ -166,10 +166,10 @@
     <t>f1426313-4c95-4d89-9ab0-d616ca86b43c.0a8eed458612eda148562c46b5ec8fb9fc84407f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-26 05:00:59</t>
-  </si>
-  <si>
-    <t>2016-02-26 05:01:48</t>
+    <t>2016-02-26 05:02:39</t>
+  </si>
+  <si>
+    <t>2016-02-26 05:03:31</t>
   </si>
 </sst>
 </file>
